--- a/BlackFieldInstruction/RabiConfig/xlsx/Ui.xlsx
+++ b/BlackFieldInstruction/RabiConfig/xlsx/Ui.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB71548F-A760-467F-9C87-DBE1D36D0944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B21CB8A-6951-4480-A390-A5C61D4B9C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="4980" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/Ui/CommandView.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>CommandView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/CommandView.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +411,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -426,7 +426,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,16 +492,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
